--- a/Assets/Excel/Rule.xlsx
+++ b/Assets/Excel/Rule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19220" windowHeight="11480"/>
+    <workbookView windowWidth="13650" windowHeight="7640"/>
   </bookViews>
   <sheets>
     <sheet name="Rule" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>//两边需要对上</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>mixerID</t>
   </si>
   <si>
     <t>priority</t>
@@ -1005,28 +1008,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="4" width="11.8181818181818" customWidth="1"/>
-    <col min="5" max="5" width="15.5454545454545" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="3" max="5" width="11.8181818181818" customWidth="1"/>
+    <col min="6" max="6" width="15.5454545454545" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:6">
-      <c r="E1" t="s">
+    <row r="1" spans="6:7">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1045,28 +1048,34 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1074,19 +1083,22 @@
         <v>2001</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4">
+        <v>2001</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1001</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1094,19 +1106,22 @@
         <v>2002</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5">
+        <v>2001</v>
+      </c>
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1002</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1114,16 +1129,19 @@
         <v>2003</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6">
+        <v>2001</v>
+      </c>
+      <c r="E6">
         <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Rule.xlsx
+++ b/Assets/Excel/Rule.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>//两边需要对上</t>
   </si>
@@ -65,19 +65,34 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>萝卜粥</t>
-  </si>
-  <si>
-    <t>蝌蚪粥</t>
-  </si>
-  <si>
-    <t>萝卜蝌蚪粥</t>
+    <t>鱼</t>
+  </si>
+  <si>
+    <t>萝卜汤</t>
+  </si>
+  <si>
+    <t>蝌蚪药剂</t>
+  </si>
+  <si>
+    <t>鱼汤</t>
+  </si>
+  <si>
+    <t>萝卜蝌蚪汤</t>
   </si>
   <si>
     <t>1001;1002</t>
   </si>
   <si>
     <t>1;1</t>
+  </si>
+  <si>
+    <t>萝卜蝌蚪鱼汤</t>
+  </si>
+  <si>
+    <t>1001;1002;1003</t>
+  </si>
+  <si>
+    <t>1;1;1</t>
   </si>
 </sst>
 </file>
@@ -1008,13 +1023,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="5" width="11.8181818181818" customWidth="1"/>
     <col min="6" max="6" width="15.5454545454545" customWidth="1"/>
@@ -1080,19 +1095,19 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>2001</v>
+        <v>1003</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1103,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -1115,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1126,7 +1141,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -1135,13 +1150,82 @@
         <v>2001</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1002</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2003</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="G6" t="s">
+      <c r="D7">
+        <v>2001</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1003</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>3012</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
+      </c>
+      <c r="D8">
+        <v>2001</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>4123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>2001</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
